--- a/solutions/aws/cloud/disaster-recovery-web-application/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/cloud/disaster-recovery-web-application/presales/infrastructure-costs.xlsx
@@ -398,12 +398,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -436,12 +442,6 @@
     </xf>
     <xf numFmtId="165" fontId="19" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,17 +963,17 @@
           <t>Application Tier</t>
         </is>
       </c>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>2 web servers</t>
         </is>
       </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>4-6 web servers</t>
         </is>
       </c>
-      <c r="E3" s="38" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>10+ web servers</t>
         </is>
@@ -985,32 +985,32 @@
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="39" t="inlineStr">
+      <c r="A4" s="40" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B4" s="40" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Database Size</t>
         </is>
       </c>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="C4" s="42" t="inlineStr">
         <is>
           <t>db.t3.large Multi-AZ</t>
         </is>
       </c>
-      <c r="D4" s="40" t="inlineStr">
+      <c r="D4" s="42" t="inlineStr">
         <is>
           <t>db.r5.xlarge Multi-AZ</t>
         </is>
       </c>
-      <c r="E4" s="40" t="inlineStr">
+      <c r="E4" s="42" t="inlineStr">
         <is>
           <t>db.r5.4xlarge Multi-AZ</t>
         </is>
       </c>
-      <c r="F4" s="40" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>RDS instance sizing</t>
         </is>
@@ -1027,17 +1027,17 @@
           <t>DR Strategy</t>
         </is>
       </c>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>Pilot Light</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>Warm Standby</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>Hot Standby</t>
         </is>
@@ -1049,32 +1049,32 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="39" t="inlineStr">
+      <c r="A6" s="40" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B6" s="40" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Storage Volume</t>
         </is>
       </c>
-      <c r="C6" s="40" t="inlineStr">
+      <c r="C6" s="42" t="inlineStr">
         <is>
           <t>500 GB</t>
         </is>
       </c>
-      <c r="D6" s="40" t="inlineStr">
+      <c r="D6" s="42" t="inlineStr">
         <is>
           <t>2 TB</t>
         </is>
       </c>
-      <c r="E6" s="40" t="inlineStr">
+      <c r="E6" s="42" t="inlineStr">
         <is>
           <t>10+ TB</t>
         </is>
       </c>
-      <c r="F6" s="40" t="inlineStr">
+      <c r="F6" s="41" t="inlineStr">
         <is>
           <t>Application data and backups</t>
         </is>
@@ -1091,17 +1091,17 @@
           <t>Monthly Traffic</t>
         </is>
       </c>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>100 GB cross-region</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>500 GB cross-region</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>2 TB+ cross-region</t>
         </is>
@@ -1113,32 +1113,32 @@
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="39" t="inlineStr">
+      <c r="A8" s="40" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B8" s="40" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>Monitoring Tools</t>
         </is>
       </c>
-      <c r="C8" s="40" t="inlineStr">
+      <c r="C8" s="42" t="inlineStr">
         <is>
           <t>Basic (6 hosts)</t>
         </is>
       </c>
-      <c r="D8" s="40" t="inlineStr">
+      <c r="D8" s="42" t="inlineStr">
         <is>
           <t>Standard (15 hosts)</t>
         </is>
       </c>
-      <c r="E8" s="40" t="inlineStr">
+      <c r="E8" s="42" t="inlineStr">
         <is>
           <t>Enterprise (50+ hosts)</t>
         </is>
       </c>
-      <c r="F8" s="40" t="inlineStr">
+      <c r="F8" s="41" t="inlineStr">
         <is>
           <t>Application performance monitoring</t>
         </is>
@@ -1155,17 +1155,17 @@
           <t>Support Level</t>
         </is>
       </c>
-      <c r="C9" s="38" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>Business hours</t>
         </is>
       </c>
-      <c r="D9" s="38" t="inlineStr">
+      <c r="D9" s="39" t="inlineStr">
         <is>
           <t>24x5 support</t>
         </is>
       </c>
-      <c r="E9" s="38" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>24x7 premium</t>
         </is>
@@ -1278,1160 +1278,1160 @@
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="41" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="42" t="inlineStr">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>EC2 Primary Web Tier</t>
         </is>
       </c>
-      <c r="C3" s="42" t="inlineStr">
+      <c r="C3" s="44" t="inlineStr">
         <is>
           <t>t3.large instances for web tier (primary)</t>
         </is>
       </c>
-      <c r="D3" s="43" t="n">
+      <c r="D3" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="42" t="inlineStr">
+      <c r="E3" s="44" t="inlineStr">
         <is>
           <t>Instance/Month</t>
         </is>
       </c>
-      <c r="F3" s="44" t="n">
+      <c r="F3" s="46" t="n">
         <v>75</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="46">
         <f>D3*F3*12</f>
         <v/>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="46">
         <f>G3</f>
         <v/>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="46">
         <f>G3</f>
         <v/>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="46">
         <f>G3+H3+I3</f>
         <v/>
       </c>
-      <c r="K3" s="42" t="inlineStr">
+      <c r="K3" s="44" t="inlineStr">
         <is>
           <t>Primary region compute</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="45" t="inlineStr">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B4" s="46" t="inlineStr">
+      <c r="B4" s="48" t="inlineStr">
         <is>
           <t>EC2 DR Pilot Light</t>
         </is>
       </c>
-      <c r="C4" s="46" t="inlineStr">
+      <c r="C4" s="48" t="inlineStr">
         <is>
           <t>t3.medium on-demand for DR testing</t>
         </is>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="46" t="inlineStr">
+      <c r="E4" s="48" t="inlineStr">
         <is>
           <t>Instance/Month</t>
         </is>
       </c>
-      <c r="F4" s="48" t="n">
+      <c r="F4" s="50" t="n">
         <v>21</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="50">
         <f>D4*F4*12</f>
         <v/>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="50">
         <f>G4</f>
         <v/>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="50">
         <f>G4</f>
         <v/>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="50">
         <f>G4+H4+I4</f>
         <v/>
       </c>
-      <c r="K4" s="46" t="inlineStr">
+      <c r="K4" s="48" t="inlineStr">
         <is>
           <t>DR region pilot light</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="41" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B5" s="42" t="inlineStr">
+      <c r="B5" s="44" t="inlineStr">
         <is>
           <t>RDS Primary Database</t>
         </is>
       </c>
-      <c r="C5" s="42" t="inlineStr">
+      <c r="C5" s="44" t="inlineStr">
         <is>
           <t>db.t3.large Multi-AZ PostgreSQL</t>
         </is>
       </c>
-      <c r="D5" s="43" t="n">
+      <c r="D5" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="42" t="inlineStr">
+      <c r="E5" s="44" t="inlineStr">
         <is>
           <t>Instance/Month</t>
         </is>
       </c>
-      <c r="F5" s="44" t="n">
+      <c r="F5" s="46" t="n">
         <v>240</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="46">
         <f>D5*F5*12</f>
         <v/>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="46">
         <f>G5</f>
         <v/>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="46">
         <f>G5</f>
         <v/>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="46">
         <f>G5+H5+I5</f>
         <v/>
       </c>
-      <c r="K5" s="42" t="inlineStr">
+      <c r="K5" s="44" t="inlineStr">
         <is>
           <t>Primary database</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="45" t="inlineStr">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B6" s="46" t="inlineStr">
+      <c r="B6" s="48" t="inlineStr">
         <is>
           <t>RDS DR Backups</t>
         </is>
       </c>
-      <c r="C6" s="46" t="inlineStr">
+      <c r="C6" s="48" t="inlineStr">
         <is>
           <t>Cross-region automated backups</t>
         </is>
       </c>
-      <c r="D6" s="47" t="n">
+      <c r="D6" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="46" t="inlineStr">
+      <c r="E6" s="48" t="inlineStr">
         <is>
           <t>Service/Month</t>
         </is>
       </c>
-      <c r="F6" s="48" t="n">
+      <c r="F6" s="50" t="n">
         <v>60</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="50">
         <f>D6*F6*12</f>
         <v/>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="50">
         <f>G6</f>
         <v/>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="50">
         <f>G6</f>
         <v/>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="50">
         <f>G6+H6+I6</f>
         <v/>
       </c>
-      <c r="K6" s="46" t="inlineStr">
+      <c r="K6" s="48" t="inlineStr">
         <is>
           <t>DR backup strategy</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="41" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B7" s="42" t="inlineStr">
+      <c r="B7" s="44" t="inlineStr">
         <is>
           <t>S3 Standard Storage</t>
         </is>
       </c>
-      <c r="C7" s="42" t="inlineStr">
+      <c r="C7" s="44" t="inlineStr">
         <is>
           <t>App data and backups (500GB)</t>
         </is>
       </c>
-      <c r="D7" s="43" t="n">
+      <c r="D7" s="45" t="n">
         <v>500</v>
       </c>
-      <c r="E7" s="42" t="inlineStr">
+      <c r="E7" s="44" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F7" s="44" t="n">
+      <c r="F7" s="46" t="n">
         <v>0.023</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="46">
         <f>D7*F7*12</f>
         <v/>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="46">
         <f>G7</f>
         <v/>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="46">
         <f>G7</f>
         <v/>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="46">
         <f>G7+H7+I7</f>
         <v/>
       </c>
-      <c r="K7" s="42" t="inlineStr">
+      <c r="K7" s="44" t="inlineStr">
         <is>
           <t>Object storage</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="45" t="inlineStr">
+      <c r="A8" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B8" s="46" t="inlineStr">
+      <c r="B8" s="48" t="inlineStr">
         <is>
           <t>S3 Cross-Region Replication</t>
         </is>
       </c>
-      <c r="C8" s="46" t="inlineStr">
+      <c r="C8" s="48" t="inlineStr">
         <is>
           <t>Replication to DR region (500GB)</t>
         </is>
       </c>
-      <c r="D8" s="47" t="n">
+      <c r="D8" s="49" t="n">
         <v>500</v>
       </c>
-      <c r="E8" s="46" t="inlineStr">
+      <c r="E8" s="48" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F8" s="48" t="n">
+      <c r="F8" s="50" t="n">
         <v>0.0005</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="50">
         <f>D8*F8*12</f>
         <v/>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="50">
         <f>G8</f>
         <v/>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="50">
         <f>G8</f>
         <v/>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="50">
         <f>G8+H8+I8</f>
         <v/>
       </c>
-      <c r="K8" s="46" t="inlineStr">
+      <c r="K8" s="48" t="inlineStr">
         <is>
           <t>DR replication</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="41" t="inlineStr">
+      <c r="A9" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B9" s="42" t="inlineStr">
+      <c r="B9" s="44" t="inlineStr">
         <is>
           <t>Route 53 Health Checks</t>
         </is>
       </c>
-      <c r="C9" s="42" t="inlineStr">
+      <c r="C9" s="44" t="inlineStr">
         <is>
           <t>DNS failover health checks</t>
         </is>
       </c>
-      <c r="D9" s="43" t="n">
+      <c r="D9" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="42" t="inlineStr">
+      <c r="E9" s="44" t="inlineStr">
         <is>
           <t>Checks/Month</t>
         </is>
       </c>
-      <c r="F9" s="44" t="n">
+      <c r="F9" s="46" t="n">
         <v>0.5</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="46">
         <f>D9*F9*12</f>
         <v/>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="46">
         <f>G9</f>
         <v/>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="46">
         <f>G9</f>
         <v/>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="46">
         <f>G9+H9+I9</f>
         <v/>
       </c>
-      <c r="K9" s="42" t="inlineStr">
+      <c r="K9" s="44" t="inlineStr">
         <is>
           <t>Automated failover</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="45" t="inlineStr">
+      <c r="A10" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B10" s="46" t="inlineStr">
+      <c r="B10" s="48" t="inlineStr">
         <is>
           <t>Route 53 Hosted Zones</t>
         </is>
       </c>
-      <c r="C10" s="46" t="inlineStr">
+      <c r="C10" s="48" t="inlineStr">
         <is>
           <t>Production and DR domains</t>
         </is>
       </c>
-      <c r="D10" s="47" t="n">
+      <c r="D10" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="46" t="inlineStr">
+      <c r="E10" s="48" t="inlineStr">
         <is>
           <t>Zones/Month</t>
         </is>
       </c>
-      <c r="F10" s="48" t="n">
+      <c r="F10" s="50" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="50">
         <f>D10*F10*12</f>
         <v/>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="50">
         <f>G10</f>
         <v/>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="50">
         <f>G10</f>
         <v/>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="50">
         <f>G10+H10+I10</f>
         <v/>
       </c>
-      <c r="K10" s="46" t="inlineStr">
+      <c r="K10" s="48" t="inlineStr">
         <is>
           <t>DNS management</t>
         </is>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="41" t="inlineStr">
+      <c r="A11" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B11" s="42" t="inlineStr">
+      <c r="B11" s="44" t="inlineStr">
         <is>
           <t>ALB Primary</t>
         </is>
       </c>
-      <c r="C11" s="42" t="inlineStr">
+      <c r="C11" s="44" t="inlineStr">
         <is>
           <t>Application Load Balancer primary</t>
         </is>
       </c>
-      <c r="D11" s="43" t="n">
+      <c r="D11" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="42" t="inlineStr">
+      <c r="E11" s="44" t="inlineStr">
         <is>
           <t>ALB/Month</t>
         </is>
       </c>
-      <c r="F11" s="44" t="n">
+      <c r="F11" s="46" t="n">
         <v>22.5</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="46">
         <f>D11*F11*12</f>
         <v/>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="46">
         <f>G11</f>
         <v/>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="46">
         <f>G11</f>
         <v/>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="46">
         <f>G11+H11+I11</f>
         <v/>
       </c>
-      <c r="K11" s="42" t="inlineStr">
+      <c r="K11" s="44" t="inlineStr">
         <is>
           <t>Load balancing</t>
         </is>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="45" t="inlineStr">
+      <c r="A12" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B12" s="46" t="inlineStr">
+      <c r="B12" s="48" t="inlineStr">
         <is>
           <t>ALB DR</t>
         </is>
       </c>
-      <c r="C12" s="46" t="inlineStr">
+      <c r="C12" s="48" t="inlineStr">
         <is>
           <t>ALB for DR testing</t>
         </is>
       </c>
-      <c r="D12" s="47" t="n">
+      <c r="D12" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="46" t="inlineStr">
+      <c r="E12" s="48" t="inlineStr">
         <is>
           <t>ALB/Month</t>
         </is>
       </c>
-      <c r="F12" s="48" t="n">
+      <c r="F12" s="50" t="n">
         <v>11.25</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="50">
         <f>D12*F12*12</f>
         <v/>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="50">
         <f>G12</f>
         <v/>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="50">
         <f>G12</f>
         <v/>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="50">
         <f>G12+H12+I12</f>
         <v/>
       </c>
-      <c r="K12" s="46" t="inlineStr">
+      <c r="K12" s="48" t="inlineStr">
         <is>
           <t>DR load balancer</t>
         </is>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="41" t="inlineStr">
+      <c r="A13" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B13" s="42" t="inlineStr">
+      <c r="B13" s="44" t="inlineStr">
         <is>
           <t>EBS Volumes Primary</t>
         </is>
       </c>
-      <c r="C13" s="42" t="inlineStr">
+      <c r="C13" s="44" t="inlineStr">
         <is>
           <t>gp3 storage volumes (500GB)</t>
         </is>
       </c>
-      <c r="D13" s="43" t="n">
+      <c r="D13" s="45" t="n">
         <v>500</v>
       </c>
-      <c r="E13" s="42" t="inlineStr">
+      <c r="E13" s="44" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F13" s="44" t="n">
+      <c r="F13" s="46" t="n">
         <v>0.1</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="46">
         <f>D13*F13*12</f>
         <v/>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="46">
         <f>G13</f>
         <v/>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="46">
         <f>G13</f>
         <v/>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="46">
         <f>G13+H13+I13</f>
         <v/>
       </c>
-      <c r="K13" s="42" t="inlineStr">
+      <c r="K13" s="44" t="inlineStr">
         <is>
           <t>Block storage</t>
         </is>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="45" t="inlineStr">
+      <c r="A14" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B14" s="46" t="inlineStr">
+      <c r="B14" s="48" t="inlineStr">
         <is>
           <t>EBS Snapshots</t>
         </is>
       </c>
-      <c r="C14" s="46" t="inlineStr">
+      <c r="C14" s="48" t="inlineStr">
         <is>
           <t>Automated incremental backups</t>
         </is>
       </c>
-      <c r="D14" s="47" t="n">
+      <c r="D14" s="49" t="n">
         <v>500</v>
       </c>
-      <c r="E14" s="46" t="inlineStr">
+      <c r="E14" s="48" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F14" s="48" t="n">
+      <c r="F14" s="50" t="n">
         <v>0.05</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="50">
         <f>D14*F14*12</f>
         <v/>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="50">
         <f>G14</f>
         <v/>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="50">
         <f>G14</f>
         <v/>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="50">
         <f>G14+H14+I14</f>
         <v/>
       </c>
-      <c r="K14" s="46" t="inlineStr">
+      <c r="K14" s="48" t="inlineStr">
         <is>
           <t>Backup snapshots</t>
         </is>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="41" t="inlineStr">
+      <c r="A15" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B15" s="42" t="inlineStr">
+      <c r="B15" s="44" t="inlineStr">
         <is>
           <t>AWS Backup</t>
         </is>
       </c>
-      <c r="C15" s="42" t="inlineStr">
+      <c r="C15" s="44" t="inlineStr">
         <is>
           <t>Centralized backup policies (500GB)</t>
         </is>
       </c>
-      <c r="D15" s="43" t="n">
+      <c r="D15" s="45" t="n">
         <v>500</v>
       </c>
-      <c r="E15" s="42" t="inlineStr">
+      <c r="E15" s="44" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F15" s="44" t="n">
+      <c r="F15" s="46" t="n">
         <v>0.05</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="46">
         <f>D15*F15*12</f>
         <v/>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="46">
         <f>G15</f>
         <v/>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="46">
         <f>G15</f>
         <v/>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="46">
         <f>G15+H15+I15</f>
         <v/>
       </c>
-      <c r="K15" s="42" t="inlineStr">
+      <c r="K15" s="44" t="inlineStr">
         <is>
           <t>Backup management</t>
         </is>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="45" t="inlineStr">
+      <c r="A16" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B16" s="46" t="inlineStr">
+      <c r="B16" s="48" t="inlineStr">
         <is>
           <t>CloudWatch Logs</t>
         </is>
       </c>
-      <c r="C16" s="46" t="inlineStr">
+      <c r="C16" s="48" t="inlineStr">
         <is>
           <t>Primary and DR regions (50GB)</t>
         </is>
       </c>
-      <c r="D16" s="47" t="n">
+      <c r="D16" s="49" t="n">
         <v>50</v>
       </c>
-      <c r="E16" s="46" t="inlineStr">
+      <c r="E16" s="48" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F16" s="48" t="n">
+      <c r="F16" s="50" t="n">
         <v>0.5</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="50">
         <f>D16*F16*12</f>
         <v/>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="50">
         <f>G16</f>
         <v/>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="50">
         <f>G16</f>
         <v/>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="50">
         <f>G16+H16+I16</f>
         <v/>
       </c>
-      <c r="K16" s="46" t="inlineStr">
+      <c r="K16" s="48" t="inlineStr">
         <is>
           <t>Monitoring logs</t>
         </is>
       </c>
     </row>
     <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="41" t="inlineStr">
+      <c r="A17" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B17" s="42" t="inlineStr">
+      <c r="B17" s="44" t="inlineStr">
         <is>
           <t>CloudWatch Metrics</t>
         </is>
       </c>
-      <c r="C17" s="42" t="inlineStr">
+      <c r="C17" s="44" t="inlineStr">
         <is>
           <t>Monitoring dashboards (100 metrics)</t>
         </is>
       </c>
-      <c r="D17" s="43" t="n">
+      <c r="D17" s="45" t="n">
         <v>100</v>
       </c>
-      <c r="E17" s="42" t="inlineStr">
+      <c r="E17" s="44" t="inlineStr">
         <is>
           <t>Metrics/Month</t>
         </is>
       </c>
-      <c r="F17" s="44" t="n">
+      <c r="F17" s="46" t="n">
         <v>0.3</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="46">
         <f>D17*F17*12</f>
         <v/>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="46">
         <f>G17</f>
         <v/>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="46">
         <f>G17</f>
         <v/>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="46">
         <f>G17+H17+I17</f>
         <v/>
       </c>
-      <c r="K17" s="42" t="inlineStr">
+      <c r="K17" s="44" t="inlineStr">
         <is>
           <t>Custom metrics</t>
         </is>
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="45" t="inlineStr">
+      <c r="A18" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B18" s="46" t="inlineStr">
+      <c r="B18" s="48" t="inlineStr">
         <is>
           <t>CloudTrail</t>
         </is>
       </c>
-      <c r="C18" s="46" t="inlineStr">
+      <c r="C18" s="48" t="inlineStr">
         <is>
           <t>Audit logging both regions</t>
         </is>
       </c>
-      <c r="D18" s="47" t="n">
+      <c r="D18" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="46" t="inlineStr">
+      <c r="E18" s="48" t="inlineStr">
         <is>
           <t>Trails/Month</t>
         </is>
       </c>
-      <c r="F18" s="48" t="n">
+      <c r="F18" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="50">
         <f>D18*F18*12</f>
         <v/>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="50">
         <f>G18</f>
         <v/>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="50">
         <f>G18</f>
         <v/>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="50">
         <f>G18+H18+I18</f>
         <v/>
       </c>
-      <c r="K18" s="46" t="inlineStr">
+      <c r="K18" s="48" t="inlineStr">
         <is>
           <t>Compliance audit</t>
         </is>
       </c>
     </row>
     <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="41" t="inlineStr">
+      <c r="A19" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B19" s="42" t="inlineStr">
+      <c r="B19" s="44" t="inlineStr">
         <is>
           <t>NAT Gateway Primary</t>
         </is>
       </c>
-      <c r="C19" s="42" t="inlineStr">
+      <c r="C19" s="44" t="inlineStr">
         <is>
           <t>Single AZ NAT Gateway</t>
         </is>
       </c>
-      <c r="D19" s="43" t="n">
+      <c r="D19" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="42" t="inlineStr">
+      <c r="E19" s="44" t="inlineStr">
         <is>
           <t>Gateway/Month</t>
         </is>
       </c>
-      <c r="F19" s="44" t="n">
+      <c r="F19" s="46" t="n">
         <v>32.85</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="46">
         <f>D19*F19*12</f>
         <v/>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="46">
         <f>G19</f>
         <v/>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="46">
         <f>G19</f>
         <v/>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="46">
         <f>G19+H19+I19</f>
         <v/>
       </c>
-      <c r="K19" s="42" t="inlineStr">
+      <c r="K19" s="44" t="inlineStr">
         <is>
           <t>Outbound connectivity</t>
         </is>
       </c>
     </row>
     <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="45" t="inlineStr">
+      <c r="A20" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B20" s="46" t="inlineStr">
+      <c r="B20" s="48" t="inlineStr">
         <is>
           <t>Secrets Manager</t>
         </is>
       </c>
-      <c r="C20" s="46" t="inlineStr">
+      <c r="C20" s="48" t="inlineStr">
         <is>
           <t>Secure credential storage</t>
         </is>
       </c>
-      <c r="D20" s="47" t="n">
+      <c r="D20" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="46" t="inlineStr">
+      <c r="E20" s="48" t="inlineStr">
         <is>
           <t>Secrets/Month</t>
         </is>
       </c>
-      <c r="F20" s="48" t="n">
+      <c r="F20" s="50" t="n">
         <v>0.4</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="50">
         <f>D20*F20*12</f>
         <v/>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="50">
         <f>G20</f>
         <v/>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="50">
         <f>G20</f>
         <v/>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="50">
         <f>G20+H20+I20</f>
         <v/>
       </c>
-      <c r="K20" s="46" t="inlineStr">
+      <c r="K20" s="48" t="inlineStr">
         <is>
           <t>Secrets management</t>
         </is>
       </c>
     </row>
     <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="41" t="inlineStr">
+      <c r="A21" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B21" s="42" t="inlineStr">
+      <c r="B21" s="44" t="inlineStr">
         <is>
           <t>SNS Notifications</t>
         </is>
       </c>
-      <c r="C21" s="42" t="inlineStr">
+      <c r="C21" s="44" t="inlineStr">
         <is>
           <t>DR event notifications</t>
         </is>
       </c>
-      <c r="D21" s="43" t="n">
+      <c r="D21" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="E21" s="42" t="inlineStr">
+      <c r="E21" s="44" t="inlineStr">
         <is>
           <t>Topics/Month</t>
         </is>
       </c>
-      <c r="F21" s="44" t="n">
+      <c r="F21" s="46" t="n">
         <v>0.5</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="46">
         <f>D21*F21*12</f>
         <v/>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="46">
         <f>G21</f>
         <v/>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="46">
         <f>G21</f>
         <v/>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="46">
         <f>G21+H21+I21</f>
         <v/>
       </c>
-      <c r="K21" s="42" t="inlineStr">
+      <c r="K21" s="44" t="inlineStr">
         <is>
           <t>Alert notifications</t>
         </is>
       </c>
     </row>
     <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="45" t="inlineStr">
+      <c r="A22" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B22" s="46" t="inlineStr">
+      <c r="B22" s="48" t="inlineStr">
         <is>
           <t>Data Transfer Cross-Region</t>
         </is>
       </c>
-      <c r="C22" s="46" t="inlineStr">
+      <c r="C22" s="48" t="inlineStr">
         <is>
           <t>Replication traffic (100GB/month)</t>
         </is>
       </c>
-      <c r="D22" s="47" t="n">
+      <c r="D22" s="49" t="n">
         <v>100</v>
       </c>
-      <c r="E22" s="46" t="inlineStr">
+      <c r="E22" s="48" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F22" s="48" t="n">
+      <c r="F22" s="50" t="n">
         <v>0.02</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="50">
         <f>D22*F22*12</f>
         <v/>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="50">
         <f>G22</f>
         <v/>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="50">
         <f>G22</f>
         <v/>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="50">
         <f>G22+H22+I22</f>
         <v/>
       </c>
-      <c r="K22" s="46" t="inlineStr">
+      <c r="K22" s="48" t="inlineStr">
         <is>
           <t>Cross-region transfer</t>
         </is>
       </c>
     </row>
     <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="41" t="inlineStr">
+      <c r="A23" s="43" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B23" s="42" t="inlineStr">
+      <c r="B23" s="44" t="inlineStr">
         <is>
           <t>Datadog Monitoring</t>
         </is>
       </c>
-      <c r="C23" s="42" t="inlineStr">
+      <c r="C23" s="44" t="inlineStr">
         <is>
           <t>Pro monitoring (6 hosts)</t>
         </is>
       </c>
-      <c r="D23" s="43" t="n">
+      <c r="D23" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="E23" s="42" t="inlineStr">
+      <c r="E23" s="44" t="inlineStr">
         <is>
           <t>Hosts/Month</t>
         </is>
       </c>
-      <c r="F23" s="44" t="n">
+      <c r="F23" s="46" t="n">
         <v>23</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="46">
         <f>D23*F23*12</f>
         <v/>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="46">
         <f>G23</f>
         <v/>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="46">
         <f>G23</f>
         <v/>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="46">
         <f>G23+H23+I23</f>
         <v/>
       </c>
-      <c r="K23" s="42" t="inlineStr">
+      <c r="K23" s="44" t="inlineStr">
         <is>
           <t>Application monitoring</t>
         </is>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1">
-      <c r="A24" s="45" t="inlineStr">
+      <c r="A24" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B24" s="46" t="inlineStr">
+      <c r="B24" s="48" t="inlineStr">
         <is>
           <t>PagerDuty</t>
         </is>
       </c>
-      <c r="C24" s="46" t="inlineStr">
+      <c r="C24" s="48" t="inlineStr">
         <is>
           <t>Professional incident management (3 users)</t>
         </is>
       </c>
-      <c r="D24" s="47" t="n">
+      <c r="D24" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="46" t="inlineStr">
+      <c r="E24" s="48" t="inlineStr">
         <is>
           <t>Users/Month</t>
         </is>
       </c>
-      <c r="F24" s="48" t="n">
+      <c r="F24" s="50" t="n">
         <v>41</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="50">
         <f>D24*F24*12</f>
         <v/>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="50">
         <f>G24</f>
         <v/>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="50">
         <f>G24</f>
         <v/>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="50">
         <f>G24+H24+I24</f>
         <v/>
       </c>
-      <c r="K24" s="46" t="inlineStr">
+      <c r="K24" s="48" t="inlineStr">
         <is>
           <t>Incident management</t>
         </is>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1">
-      <c r="A25" s="41" t="inlineStr">
+      <c r="A25" s="43" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B25" s="42" t="inlineStr">
+      <c r="B25" s="44" t="inlineStr">
         <is>
           <t>AWS Managed DR Services</t>
         </is>
       </c>
-      <c r="C25" s="42" t="inlineStr">
+      <c r="C25" s="44" t="inlineStr">
         <is>
           <t>Managed services and quarterly testing (15% of infrastructure)</t>
         </is>
       </c>
-      <c r="D25" s="43" t="n">
+      <c r="D25" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="42" t="inlineStr">
+      <c r="E25" s="44" t="inlineStr">
         <is>
           <t>Service/Month</t>
         </is>
       </c>
-      <c r="F25" s="44" t="n">
+      <c r="F25" s="46" t="n">
         <v>122.25</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="46">
         <f>D25*F25*12</f>
         <v/>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="46">
         <f>G25</f>
         <v/>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="46">
         <f>G25</f>
         <v/>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="46">
         <f>G25+H25+I25</f>
         <v/>
       </c>
-      <c r="K25" s="42" t="inlineStr">
+      <c r="K25" s="44" t="inlineStr">
         <is>
           <t>Ongoing support</t>
         </is>
       </c>
     </row>
     <row r="26" ht="26" customHeight="1">
-      <c r="A26" s="49" t="inlineStr">
+      <c r="A26" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B26" s="50" t="n"/>
-      <c r="C26" s="50" t="n"/>
-      <c r="D26" s="50" t="n"/>
-      <c r="E26" s="50" t="n"/>
-      <c r="F26" s="50" t="n"/>
-      <c r="G26" s="51">
+      <c r="B26" s="52" t="n"/>
+      <c r="C26" s="52" t="n"/>
+      <c r="D26" s="52" t="n"/>
+      <c r="E26" s="52" t="n"/>
+      <c r="F26" s="52" t="n"/>
+      <c r="G26" s="53">
         <f>SUM(G3:G25)</f>
         <v/>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="53">
         <f>SUM(H3:H25)</f>
         <v/>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="53">
         <f>SUM(I3:I25)</f>
         <v/>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="53">
         <f>SUM(J3:J25)</f>
         <v/>
       </c>
-      <c r="K26" s="50" t="n"/>
+      <c r="K26" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K26"/>
@@ -2493,100 +2493,100 @@
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="41" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="52" t="inlineStr">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>AWS DR Program Credit</t>
         </is>
       </c>
-      <c r="C3" s="44" t="n">
+      <c r="C3" s="46" t="n">
         <v>-369</v>
       </c>
-      <c r="D3" s="52" t="inlineStr">
+      <c r="D3" s="44" t="inlineStr">
         <is>
           <t>Pilot light infrastructure and DR testing credits</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="45" t="inlineStr">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B4" s="53" t="inlineStr">
+      <c r="B4" s="48" t="inlineStr">
         <is>
           <t>Partner Credit</t>
         </is>
       </c>
-      <c r="C4" s="48" t="n">
+      <c r="C4" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="53" t="inlineStr">
+      <c r="D4" s="48" t="inlineStr">
         <is>
           <t>No software credits available</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="41" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B5" s="52" t="inlineStr">
+      <c r="B5" s="44" t="inlineStr">
         <is>
           <t>Program Credit</t>
         </is>
       </c>
-      <c r="C5" s="44" t="n">
+      <c r="C5" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="52" t="inlineStr">
+      <c r="D5" s="44" t="inlineStr">
         <is>
           <t>No support credits available</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="45" t="inlineStr">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Hardware/Equipment</t>
         </is>
       </c>
-      <c r="B6" s="53" t="inlineStr">
+      <c r="B6" s="48" t="inlineStr">
         <is>
           <t>Equipment Credit</t>
         </is>
       </c>
-      <c r="C6" s="48" t="n">
+      <c r="C6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="53" t="inlineStr">
+      <c r="D6" s="48" t="inlineStr">
         <is>
           <t>No hardware credits available</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="41" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Professional Services</t>
         </is>
       </c>
-      <c r="B7" s="52" t="inlineStr">
+      <c r="B7" s="44" t="inlineStr">
         <is>
           <t>AWS Partner Services Credit</t>
         </is>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="46" t="n">
         <v>-8000</v>
       </c>
-      <c r="D7" s="52" t="inlineStr">
+      <c r="D7" s="44" t="inlineStr">
         <is>
           <t>DR design and testing services</t>
         </is>
@@ -2670,156 +2670,156 @@
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="41" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="46">
         <f>SUMIF(Credits!$A:$A,A3,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="46">
         <f>B3+C3</f>
         <v/>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="46">
         <f>D3+E3+F3</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="45" t="inlineStr">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="50">
         <f>SUMIF(Credits!$A:$A,A4,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="50">
         <f>B4+C4</f>
         <v/>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="50">
         <f>D4+E4+F4</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="41" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="46">
         <f>SUMIF(Credits!$A:$A,A5,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="46">
         <f>B5+C5</f>
         <v/>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="46">
         <f>D5+E5+F5</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="45" t="inlineStr">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Professional Services</t>
         </is>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="50">
         <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="50">
         <f>B6+C6</f>
         <v/>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="50">
         <f>D6+E6+F6</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="49" t="inlineStr">
+      <c r="A7" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <f>SUM(B3:B6)</f>
         <v/>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="53">
         <f>SUM(C3:C6)</f>
         <v/>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="53">
         <f>SUM(D3:D6)</f>
         <v/>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="53">
         <f>SUM(E3:E6)</f>
         <v/>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="53">
         <f>SUM(F3:F6)</f>
         <v/>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="53">
         <f>SUM(G3:G6)</f>
         <v/>
       </c>

--- a/solutions/aws/cloud/disaster-recovery-web-application/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/cloud/disaster-recovery-web-application/presales/infrastructure-costs.xlsx
@@ -7,16 +7,16 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SIZING GUIDELINES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INFRASTRUCTURE COSTS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CREDITS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SUMMARY" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sizing Guidelines" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Infrastructure Costs" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credits" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3-Year Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SIZING GUIDELINES'!$A$2:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'INFRASTRUCTURE COSTS'!$A$2:$K$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CREDITS'!$A$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SUMMARY'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -916,7 +916,7 @@
     <row r="1" ht="32" customHeight="1">
       <c r="A1" s="35" t="inlineStr">
         <is>
-          <t>SIZING GUIDELINES - Based on Solution Scope (Default: Small)</t>
+          <t>Sizing Guidelines</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
@@ -1216,7 +1216,7 @@
     <row r="1" ht="32" customHeight="1">
       <c r="A1" s="35" t="inlineStr">
         <is>
-          <t>INFRASTRUCTURE COSTS - Quantities Default to Small Scope</t>
+          <t>Infrastructure Costs</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
     <row r="1" ht="32" customHeight="1">
       <c r="A1" s="35" t="inlineStr">
         <is>
-          <t>CREDITS - Applied per Category (Year 1 Only)</t>
+          <t>Credits</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
     <row r="1" ht="32" customHeight="1">
       <c r="A1" s="35" t="inlineStr">
         <is>
-          <t>SUMMARY</t>
+          <t>3-Year Summary</t>
         </is>
       </c>
     </row>

--- a/solutions/aws/cloud/disaster-recovery-web-application/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/cloud/disaster-recovery-web-application/presales/infrastructure-costs.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="38" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="41" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="38" t="inlineStr">
@@ -1280,7 +1280,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1427,7 +1427,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1525,7 +1525,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1574,7 +1574,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1770,7 +1770,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1819,7 +1819,7 @@
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
@@ -1868,7 +1868,7 @@
     <row r="15" ht="26" customHeight="1">
       <c r="A15" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B15" s="44" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="16" ht="26" customHeight="1">
       <c r="A16" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B16" s="48" t="inlineStr">
@@ -1966,7 +1966,7 @@
     <row r="17" ht="26" customHeight="1">
       <c r="A17" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B17" s="44" t="inlineStr">
@@ -2015,7 +2015,7 @@
     <row r="18" ht="26" customHeight="1">
       <c r="A18" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B18" s="48" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="19" ht="26" customHeight="1">
       <c r="A19" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B19" s="44" t="inlineStr">
@@ -2113,7 +2113,7 @@
     <row r="20" ht="26" customHeight="1">
       <c r="A20" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B20" s="48" t="inlineStr">
@@ -2162,7 +2162,7 @@
     <row r="21" ht="26" customHeight="1">
       <c r="A21" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B21" s="44" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="22" ht="26" customHeight="1">
       <c r="A22" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B22" s="48" t="inlineStr">
@@ -2495,7 +2495,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2555,7 +2555,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Hardware/Equipment</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -2607,7 +2607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2672,7 +2672,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2763,69 +2763,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
